--- a/biology/Zoologie/Groupe_de_recherche_sur_les_cétacés/Groupe_de_recherche_sur_les_cétacés.xlsx
+++ b/biology/Zoologie/Groupe_de_recherche_sur_les_cétacés/Groupe_de_recherche_sur_les_cétacés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Groupe_de_recherche_sur_les_c%C3%A9tac%C3%A9s</t>
+          <t>Groupe_de_recherche_sur_les_cétacés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le Groupe de recherche sur les cétacés (dit GREC) est une Association loi de 1901 à but non lucratif. Le GREC est acteur de la recherche sur les cétacés en Méditerranée, en Polynésie et ailleurs dans le monde ; selon les campagnes, il travaille en autonomie ou en partenariat avec des universités ou institutions locales. Le groupe est composé d'une vingtaine de membres actifs ou honoraires. Tous sont bénévoles.
-L'association favorise la protection, prenant part à la mise sur pied de sanctuaires pour les Cétacés. Elle milite pour l'interdiction de la nage commerciale avec les mammifères marins[1].
+L'association favorise la protection, prenant part à la mise sur pied de sanctuaires pour les Cétacés. Elle milite pour l'interdiction de la nage commerciale avec les mammifères marins.
 Le GREC a pour objectif :
 de favoriser l'acquisition de nouvelles connaissances sur les cétacés sauvages
 de diffuser ces connaissances vers la communauté scientifique
